--- a/data/pca/factorExposure/factorExposure_2009-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01713863479919188</v>
+        <v>0.01667021424305356</v>
       </c>
       <c r="C2">
-        <v>-0.001991254163593303</v>
+        <v>-0.001256556501444231</v>
       </c>
       <c r="D2">
-        <v>0.007603982326614693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008838080817731828</v>
+      </c>
+      <c r="E2">
+        <v>0.0003017181871302161</v>
+      </c>
+      <c r="F2">
+        <v>0.01997883692339558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08709693802922158</v>
+        <v>0.09035183015497496</v>
       </c>
       <c r="C4">
-        <v>-0.02066934592195914</v>
+        <v>-0.01580613925634676</v>
       </c>
       <c r="D4">
-        <v>0.08025445826013576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08421094518709211</v>
+      </c>
+      <c r="E4">
+        <v>0.03171430235561219</v>
+      </c>
+      <c r="F4">
+        <v>-0.03632672473223765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.936830587659139e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.8882607224035e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002519903926551218</v>
+      </c>
+      <c r="E5">
+        <v>2.663870183519797e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0001719466187920642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1567365945785997</v>
+        <v>0.1649162414713813</v>
       </c>
       <c r="C6">
-        <v>-0.03466941637980895</v>
+        <v>-0.03294591467105729</v>
       </c>
       <c r="D6">
-        <v>-0.02875989647016912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01957160615004284</v>
+      </c>
+      <c r="E6">
+        <v>0.01599036155841026</v>
+      </c>
+      <c r="F6">
+        <v>-0.0575008644060483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0574186257380708</v>
+        <v>0.06087189340961434</v>
       </c>
       <c r="C7">
-        <v>-0.002241344570939649</v>
+        <v>0.001168767089572751</v>
       </c>
       <c r="D7">
-        <v>0.04741549860411041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05282242296352934</v>
+      </c>
+      <c r="E7">
+        <v>0.0193417037789296</v>
+      </c>
+      <c r="F7">
+        <v>-0.04355760426358408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05849294034859511</v>
+        <v>0.05489503665268996</v>
       </c>
       <c r="C8">
-        <v>0.009705343846077068</v>
+        <v>0.01197224415970263</v>
       </c>
       <c r="D8">
-        <v>0.02547660891386316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0301461436130104</v>
+      </c>
+      <c r="E8">
+        <v>0.01352277750753733</v>
+      </c>
+      <c r="F8">
+        <v>0.03621333345516053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06825858469799047</v>
+        <v>0.07055825148270221</v>
       </c>
       <c r="C9">
-        <v>-0.01648899338248349</v>
+        <v>-0.01132362109896803</v>
       </c>
       <c r="D9">
-        <v>0.08355299756348035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0878532051462392</v>
+      </c>
+      <c r="E9">
+        <v>0.03001584798714231</v>
+      </c>
+      <c r="F9">
+        <v>-0.05510889687119493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0888009249504237</v>
+        <v>0.08845472125186306</v>
       </c>
       <c r="C10">
-        <v>-0.01992597483194597</v>
+        <v>-0.02383592265648762</v>
       </c>
       <c r="D10">
-        <v>-0.1686460244187216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1586679351124677</v>
+      </c>
+      <c r="E10">
+        <v>-0.03731317214513633</v>
+      </c>
+      <c r="F10">
+        <v>0.07556856766248057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0886513741246515</v>
+        <v>0.0856707897119047</v>
       </c>
       <c r="C11">
-        <v>-0.01791901539245059</v>
+        <v>-0.01227692841689433</v>
       </c>
       <c r="D11">
-        <v>0.1150640244781491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1202962561980354</v>
+      </c>
+      <c r="E11">
+        <v>0.05549437333794704</v>
+      </c>
+      <c r="F11">
+        <v>-0.003193065727735196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09571775234142142</v>
+        <v>0.09012368569118298</v>
       </c>
       <c r="C12">
-        <v>-0.01662940205454864</v>
+        <v>-0.01012253212044689</v>
       </c>
       <c r="D12">
-        <v>0.1218349098890944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1357637255275332</v>
+      </c>
+      <c r="E12">
+        <v>0.05873084935924858</v>
+      </c>
+      <c r="F12">
+        <v>-0.009295699290592539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04460606141344749</v>
+        <v>0.0442099953688332</v>
       </c>
       <c r="C13">
-        <v>-0.007251019497963969</v>
+        <v>-0.003564373661880226</v>
       </c>
       <c r="D13">
-        <v>0.04898933588006554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05533525555569158</v>
+      </c>
+      <c r="E13">
+        <v>0.001897728754463298</v>
+      </c>
+      <c r="F13">
+        <v>-0.003942515273267993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01783051923964623</v>
+        <v>0.02150562592426204</v>
       </c>
       <c r="C14">
-        <v>-0.01480097228473062</v>
+        <v>-0.01359826548587747</v>
       </c>
       <c r="D14">
-        <v>0.03241855623442158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03358318601389691</v>
+      </c>
+      <c r="E14">
+        <v>0.0223083378272241</v>
+      </c>
+      <c r="F14">
+        <v>-0.01017159164653345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03476821382127453</v>
+        <v>0.03485184182149323</v>
       </c>
       <c r="C15">
-        <v>-0.008278607555958677</v>
+        <v>-0.006360013357931045</v>
       </c>
       <c r="D15">
-        <v>0.04818557814204773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04806063826250071</v>
+      </c>
+      <c r="E15">
+        <v>0.01133526447258205</v>
+      </c>
+      <c r="F15">
+        <v>-0.02644146371360163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07134890792891972</v>
+        <v>0.06973238780124072</v>
       </c>
       <c r="C16">
-        <v>-0.007353004947334959</v>
+        <v>-0.001647476799356983</v>
       </c>
       <c r="D16">
-        <v>0.1178957140022131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1303819859622455</v>
+      </c>
+      <c r="E16">
+        <v>0.06962311527170857</v>
+      </c>
+      <c r="F16">
+        <v>-0.004764381375416108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001740328943864966</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007780874110285326</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001765669862358432</v>
+      </c>
+      <c r="E17">
+        <v>0.005046214223493503</v>
+      </c>
+      <c r="F17">
+        <v>0.003820483272499634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02658215278827351</v>
+        <v>0.04491632873168639</v>
       </c>
       <c r="C18">
-        <v>0.001026355895328195</v>
+        <v>0.0007334633384784467</v>
       </c>
       <c r="D18">
-        <v>0.02297295332001225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01835054822888552</v>
+      </c>
+      <c r="E18">
+        <v>-0.00453362401938467</v>
+      </c>
+      <c r="F18">
+        <v>0.01357107375439872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06298930326158048</v>
+        <v>0.0620678093088667</v>
       </c>
       <c r="C20">
-        <v>-0.006079374273993314</v>
+        <v>-0.002114958351121026</v>
       </c>
       <c r="D20">
-        <v>0.07475099875893253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07918297021293932</v>
+      </c>
+      <c r="E20">
+        <v>0.06447693553051762</v>
+      </c>
+      <c r="F20">
+        <v>-0.02693055079332748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04013576631169782</v>
+        <v>0.04233146470602402</v>
       </c>
       <c r="C21">
-        <v>-0.01033192673847119</v>
+        <v>-0.007633003493078766</v>
       </c>
       <c r="D21">
-        <v>0.03599556543073971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03721865085318134</v>
+      </c>
+      <c r="E21">
+        <v>0.0002998820510532003</v>
+      </c>
+      <c r="F21">
+        <v>0.02809173323564139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04179753276704919</v>
+        <v>0.04336294017447996</v>
       </c>
       <c r="C22">
-        <v>-0.002147888087799427</v>
+        <v>-0.001541223431946976</v>
       </c>
       <c r="D22">
-        <v>0.00346164756503055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01004944363738439</v>
+      </c>
+      <c r="E22">
+        <v>0.03178771932559987</v>
+      </c>
+      <c r="F22">
+        <v>0.09216023157460916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04175962019522129</v>
+        <v>0.04333118790406101</v>
       </c>
       <c r="C23">
-        <v>-0.002134855295219521</v>
+        <v>-0.001528920855985251</v>
       </c>
       <c r="D23">
-        <v>0.003479872302919009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01006320602504288</v>
+      </c>
+      <c r="E23">
+        <v>0.03181168554886516</v>
+      </c>
+      <c r="F23">
+        <v>0.09224958527931153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07920859696643819</v>
+        <v>0.07599609082681866</v>
       </c>
       <c r="C24">
-        <v>-0.008311874254366317</v>
+        <v>-0.002630966862375279</v>
       </c>
       <c r="D24">
-        <v>0.1191637995299355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1239755816750385</v>
+      </c>
+      <c r="E24">
+        <v>0.05429867446268658</v>
+      </c>
+      <c r="F24">
+        <v>-0.01737815112849229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08401684547033131</v>
+        <v>0.0808249967931501</v>
       </c>
       <c r="C25">
-        <v>-0.01071427391676959</v>
+        <v>-0.005576410663156085</v>
       </c>
       <c r="D25">
-        <v>0.1063004532799175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1115501839109284</v>
+      </c>
+      <c r="E25">
+        <v>0.0395723585943393</v>
+      </c>
+      <c r="F25">
+        <v>-0.01159668872051747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0570952229407814</v>
+        <v>0.06095891843384779</v>
       </c>
       <c r="C26">
-        <v>-0.01883146217705847</v>
+        <v>-0.01550518246798906</v>
       </c>
       <c r="D26">
-        <v>0.04053732952676795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0490053500022499</v>
+      </c>
+      <c r="E26">
+        <v>0.02951517354026164</v>
+      </c>
+      <c r="F26">
+        <v>0.02132654229020414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1415796383557176</v>
+        <v>0.1486136945587371</v>
       </c>
       <c r="C28">
-        <v>-0.02125388742035486</v>
+        <v>-0.02803123594129006</v>
       </c>
       <c r="D28">
-        <v>-0.2603726895874899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2552422418076716</v>
+      </c>
+      <c r="E28">
+        <v>-0.06175576514995083</v>
+      </c>
+      <c r="F28">
+        <v>-0.004617882109198267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02511393015969991</v>
+        <v>0.02765934211139513</v>
       </c>
       <c r="C29">
-        <v>-0.009721444028056478</v>
+        <v>-0.009009159736452924</v>
       </c>
       <c r="D29">
-        <v>0.03030249821693119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03045324581368559</v>
+      </c>
+      <c r="E29">
+        <v>0.01631459294700712</v>
+      </c>
+      <c r="F29">
+        <v>0.0273951914672812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0560447006721379</v>
+        <v>0.05353024550698435</v>
       </c>
       <c r="C30">
-        <v>-0.007796684487932188</v>
+        <v>-0.002722050138023955</v>
       </c>
       <c r="D30">
-        <v>0.0786258174232719</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08731800299170604</v>
+      </c>
+      <c r="E30">
+        <v>0.02163373502755491</v>
+      </c>
+      <c r="F30">
+        <v>-0.09856892773081864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05102354534276436</v>
+        <v>0.05155581946868638</v>
       </c>
       <c r="C31">
-        <v>-0.01858309302939904</v>
+        <v>-0.01689691804465555</v>
       </c>
       <c r="D31">
-        <v>0.02364917708756966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02652914913560512</v>
+      </c>
+      <c r="E31">
+        <v>0.0290857754551873</v>
+      </c>
+      <c r="F31">
+        <v>0.01223435050247757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04577434265271237</v>
+        <v>0.05061852627139499</v>
       </c>
       <c r="C32">
-        <v>-0.002570914563139444</v>
+        <v>0.0009568369281899866</v>
       </c>
       <c r="D32">
-        <v>0.03108931953579918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0355351053668771</v>
+      </c>
+      <c r="E32">
+        <v>0.03069288212807315</v>
+      </c>
+      <c r="F32">
+        <v>0.0002570340876605234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08945785384352239</v>
+        <v>0.08972519663505563</v>
       </c>
       <c r="C33">
-        <v>-0.01454622682526035</v>
+        <v>-0.008420392593497091</v>
       </c>
       <c r="D33">
-        <v>0.09334608544908508</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1062569205419655</v>
+      </c>
+      <c r="E33">
+        <v>0.05802351087737743</v>
+      </c>
+      <c r="F33">
+        <v>-0.0247576115671793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06684498176735755</v>
+        <v>0.0655170826460269</v>
       </c>
       <c r="C34">
-        <v>-0.01604418977718671</v>
+        <v>-0.01096335659978833</v>
       </c>
       <c r="D34">
-        <v>0.1007021850789658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1123180677527064</v>
+      </c>
+      <c r="E34">
+        <v>0.04314204350331511</v>
+      </c>
+      <c r="F34">
+        <v>-0.02686935356359987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02614819706759622</v>
+        <v>0.02757282366541893</v>
       </c>
       <c r="C35">
-        <v>-0.004553448440922724</v>
+        <v>-0.003969551719015512</v>
       </c>
       <c r="D35">
-        <v>0.00852374539405347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0116057824716362</v>
+      </c>
+      <c r="E35">
+        <v>0.01764512221701552</v>
+      </c>
+      <c r="F35">
+        <v>0.008755590027888366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02350601270729883</v>
+        <v>0.02800220441505427</v>
       </c>
       <c r="C36">
-        <v>-0.008624944752783192</v>
+        <v>-0.007383454959848177</v>
       </c>
       <c r="D36">
-        <v>0.03913852907643562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04075269498447168</v>
+      </c>
+      <c r="E36">
+        <v>0.02009113069305863</v>
+      </c>
+      <c r="F36">
+        <v>-0.0135124101678935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002512725491507943</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007205025911032409</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003146481936625911</v>
+      </c>
+      <c r="E37">
+        <v>0.0002811602661043865</v>
+      </c>
+      <c r="F37">
+        <v>0.001554200047463003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1066899775919679</v>
+        <v>0.09653308391113398</v>
       </c>
       <c r="C39">
-        <v>-0.02359924990929026</v>
+        <v>-0.01662324317699741</v>
       </c>
       <c r="D39">
-        <v>0.1525275216286828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1534183087249914</v>
+      </c>
+      <c r="E39">
+        <v>0.06960059967166501</v>
+      </c>
+      <c r="F39">
+        <v>0.007218597459749744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04149970690475906</v>
+        <v>0.04695712050980087</v>
       </c>
       <c r="C40">
-        <v>-0.01100343343787037</v>
+        <v>-0.009638715023147882</v>
       </c>
       <c r="D40">
-        <v>0.026929316987672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03367891581581088</v>
+      </c>
+      <c r="E40">
+        <v>0.0008373727260811411</v>
+      </c>
+      <c r="F40">
+        <v>0.03435802694236963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02490850373711795</v>
+        <v>0.02759087926984612</v>
       </c>
       <c r="C41">
-        <v>-0.008073211883700492</v>
+        <v>-0.007356423023906773</v>
       </c>
       <c r="D41">
-        <v>0.009041189531240649</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01076674802471573</v>
+      </c>
+      <c r="E41">
+        <v>0.01217357447117709</v>
+      </c>
+      <c r="F41">
+        <v>0.0143991260385583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04098153967522772</v>
+        <v>0.03961727069631221</v>
       </c>
       <c r="C43">
-        <v>-0.008914349542669649</v>
+        <v>-0.008086293590040837</v>
       </c>
       <c r="D43">
-        <v>0.01940701590861297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02118207385337395</v>
+      </c>
+      <c r="E43">
+        <v>0.02593872967687315</v>
+      </c>
+      <c r="F43">
+        <v>0.0272694506271578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0610375967950673</v>
+        <v>0.07267543925540594</v>
       </c>
       <c r="C44">
-        <v>-0.02271529388358769</v>
+        <v>-0.01902023710008612</v>
       </c>
       <c r="D44">
-        <v>0.09056729829315957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0902515689640853</v>
+      </c>
+      <c r="E44">
+        <v>0.0782411466404543</v>
+      </c>
+      <c r="F44">
+        <v>-0.1847878208386961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3.060698277967093e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>7.555618938883202e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-7.179397493405945e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001165215716736096</v>
+      </c>
+      <c r="F45">
+        <v>-1.618723045743377e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02100751488756473</v>
+        <v>0.02461279951985877</v>
       </c>
       <c r="C46">
-        <v>-0.004840746519776815</v>
+        <v>-0.003786535289003861</v>
       </c>
       <c r="D46">
-        <v>0.01147490438911646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01486038396013057</v>
+      </c>
+      <c r="E46">
+        <v>0.03369494867073005</v>
+      </c>
+      <c r="F46">
+        <v>0.03114706080677354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05412092533931903</v>
+        <v>0.05340462261805359</v>
       </c>
       <c r="C47">
-        <v>-0.006830758002070929</v>
+        <v>-0.005403426504394068</v>
       </c>
       <c r="D47">
-        <v>0.007528288016409966</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01191827418813543</v>
+      </c>
+      <c r="E47">
+        <v>0.02308759601355001</v>
+      </c>
+      <c r="F47">
+        <v>0.04685756805582251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04870741508607389</v>
+        <v>0.05165212511243341</v>
       </c>
       <c r="C48">
-        <v>-0.006010711765945919</v>
+        <v>-0.003122679352211268</v>
       </c>
       <c r="D48">
-        <v>0.04935272187478545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05286897471641495</v>
+      </c>
+      <c r="E48">
+        <v>-0.001488222895448823</v>
+      </c>
+      <c r="F48">
+        <v>-0.01024210217978699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1978382230909236</v>
+        <v>0.1994594039398822</v>
       </c>
       <c r="C49">
-        <v>-0.02735412866852846</v>
+        <v>-0.02407881424378529</v>
       </c>
       <c r="D49">
-        <v>-0.007923920451166711</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.002195079074406173</v>
+      </c>
+      <c r="E49">
+        <v>0.02319985436718</v>
+      </c>
+      <c r="F49">
+        <v>-0.06881603316041165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04922678712871781</v>
+        <v>0.05188433643630483</v>
       </c>
       <c r="C50">
-        <v>-0.01422021702697159</v>
+        <v>-0.01268641065959441</v>
       </c>
       <c r="D50">
-        <v>0.02437014962005051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02656785674103515</v>
+      </c>
+      <c r="E50">
+        <v>0.03102806324242074</v>
+      </c>
+      <c r="F50">
+        <v>-0.005102508398157781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1523515344832458</v>
+        <v>0.1458408260015304</v>
       </c>
       <c r="C52">
-        <v>-0.02376316534752963</v>
+        <v>-0.02075825785325344</v>
       </c>
       <c r="D52">
-        <v>0.0420252513980472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04440302933036012</v>
+      </c>
+      <c r="E52">
+        <v>0.03121525817465269</v>
+      </c>
+      <c r="F52">
+        <v>-0.043998003528341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1747519028935642</v>
+        <v>0.1679764810745645</v>
       </c>
       <c r="C53">
-        <v>-0.02624944259587202</v>
+        <v>-0.02468507097706913</v>
       </c>
       <c r="D53">
-        <v>0.005822290650468188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008468337875063068</v>
+      </c>
+      <c r="E53">
+        <v>0.03990430176003354</v>
+      </c>
+      <c r="F53">
+        <v>-0.09622240592061632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01423428786652418</v>
+        <v>0.01735779938799592</v>
       </c>
       <c r="C54">
-        <v>-0.01169817308721748</v>
+        <v>-0.01083141754046981</v>
       </c>
       <c r="D54">
-        <v>0.03003058740775462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02885095695782431</v>
+      </c>
+      <c r="E54">
+        <v>0.01975690461873623</v>
+      </c>
+      <c r="F54">
+        <v>0.009927201324721658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1188170786056118</v>
+        <v>0.116514989783055</v>
       </c>
       <c r="C55">
-        <v>-0.02268979036389182</v>
+        <v>-0.02147816507423323</v>
       </c>
       <c r="D55">
-        <v>0.004736738168631578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01192696249125502</v>
+      </c>
+      <c r="E55">
+        <v>0.03860256654352185</v>
+      </c>
+      <c r="F55">
+        <v>-0.03470563372282548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1804763042254834</v>
+        <v>0.1748857355811853</v>
       </c>
       <c r="C56">
-        <v>-0.02427555461849689</v>
+        <v>-0.02300529644634895</v>
       </c>
       <c r="D56">
-        <v>-0.004748953554420446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003090184720629819</v>
+      </c>
+      <c r="E56">
+        <v>0.0402645279838272</v>
+      </c>
+      <c r="F56">
+        <v>-0.05521933051095173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0456106760194472</v>
+        <v>0.04438920370914541</v>
       </c>
       <c r="C58">
-        <v>-0.004754948561849056</v>
+        <v>1.46130446123117e-05</v>
       </c>
       <c r="D58">
-        <v>0.06623953770446385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07680171490970486</v>
+      </c>
+      <c r="E58">
+        <v>0.03558377267291263</v>
+      </c>
+      <c r="F58">
+        <v>0.05203058725956065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1654843894768919</v>
+        <v>0.1713902359838826</v>
       </c>
       <c r="C59">
-        <v>-0.02279262126291247</v>
+        <v>-0.02817151819453843</v>
       </c>
       <c r="D59">
-        <v>-0.2191407968551106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.215044818110417</v>
+      </c>
+      <c r="E59">
+        <v>-0.05334292856582563</v>
+      </c>
+      <c r="F59">
+        <v>0.06474739277644809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2338344601188224</v>
+        <v>0.2266885974673518</v>
       </c>
       <c r="C60">
-        <v>-0.008096336993603044</v>
+        <v>-0.003564320438940052</v>
       </c>
       <c r="D60">
-        <v>0.03987385594714703</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03961855032485771</v>
+      </c>
+      <c r="E60">
+        <v>-0.006455169904896185</v>
+      </c>
+      <c r="F60">
+        <v>-0.02913435726482961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07698539959774574</v>
+        <v>0.07214505132001753</v>
       </c>
       <c r="C61">
-        <v>-0.01696745388183125</v>
+        <v>-0.0110995839209914</v>
       </c>
       <c r="D61">
-        <v>0.1137287428919837</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1184535599038543</v>
+      </c>
+      <c r="E61">
+        <v>0.04584891334314615</v>
+      </c>
+      <c r="F61">
+        <v>0.01373165804922382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1724536626367559</v>
+        <v>0.1681776956161285</v>
       </c>
       <c r="C62">
-        <v>-0.02767245939231478</v>
+        <v>-0.02541275765215133</v>
       </c>
       <c r="D62">
-        <v>0.002571793195455868</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009809755355874344</v>
+      </c>
+      <c r="E62">
+        <v>0.04205154482234743</v>
+      </c>
+      <c r="F62">
+        <v>-0.03821350846929156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04278267252055657</v>
+        <v>0.04694451612734227</v>
       </c>
       <c r="C63">
-        <v>-0.006157462503767382</v>
+        <v>-0.003095002407975446</v>
       </c>
       <c r="D63">
-        <v>0.05408662830745321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06364158503340431</v>
+      </c>
+      <c r="E63">
+        <v>0.02579506676259515</v>
+      </c>
+      <c r="F63">
+        <v>0.01214171894292768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1138975585051868</v>
+        <v>0.111450809920964</v>
       </c>
       <c r="C64">
-        <v>-0.01909498569604885</v>
+        <v>-0.01520151283459961</v>
       </c>
       <c r="D64">
-        <v>0.03756857519239595</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04412750148071588</v>
+      </c>
+      <c r="E64">
+        <v>0.03130677350181098</v>
+      </c>
+      <c r="F64">
+        <v>-0.01921650803680562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1478026414137445</v>
+        <v>0.1551563980514533</v>
       </c>
       <c r="C65">
-        <v>-0.04033284052081477</v>
+        <v>-0.03942691684067803</v>
       </c>
       <c r="D65">
-        <v>-0.04891995331678596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03922318009340343</v>
+      </c>
+      <c r="E65">
+        <v>0.01048609962745065</v>
+      </c>
+      <c r="F65">
+        <v>-0.06117668228675107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1283995938017828</v>
+        <v>0.1160356707765859</v>
       </c>
       <c r="C66">
-        <v>-0.02228103494318787</v>
+        <v>-0.01490765247959561</v>
       </c>
       <c r="D66">
-        <v>0.1372212708906908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1431037718274745</v>
+      </c>
+      <c r="E66">
+        <v>0.0732455941084468</v>
+      </c>
+      <c r="F66">
+        <v>0.003047421041530167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06346526539458069</v>
+        <v>0.05597775960823335</v>
       </c>
       <c r="C67">
-        <v>-0.007486940667560295</v>
+        <v>-0.004696746212344069</v>
       </c>
       <c r="D67">
-        <v>0.05413740670048023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05838216508962924</v>
+      </c>
+      <c r="E67">
+        <v>0.02415116005283629</v>
+      </c>
+      <c r="F67">
+        <v>0.07376141132753181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1137425352260458</v>
+        <v>0.121808519198401</v>
       </c>
       <c r="C68">
-        <v>-0.03056623137279512</v>
+        <v>-0.03813556544517714</v>
       </c>
       <c r="D68">
-        <v>-0.2616472353297257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2576143863003468</v>
+      </c>
+      <c r="E68">
+        <v>-0.08505190924656732</v>
+      </c>
+      <c r="F68">
+        <v>-0.01516439714842176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03993878803762015</v>
+        <v>0.03938529442498407</v>
       </c>
       <c r="C69">
-        <v>-0.00331719333588971</v>
+        <v>-0.002158862704014723</v>
       </c>
       <c r="D69">
-        <v>0.0107265008027514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01143420226256369</v>
+      </c>
+      <c r="E69">
+        <v>0.02976778241670758</v>
+      </c>
+      <c r="F69">
+        <v>0.01739956278810388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06959386627985807</v>
+        <v>0.06962592520364119</v>
       </c>
       <c r="C70">
-        <v>0.02261778662407404</v>
+        <v>0.02503350589041044</v>
       </c>
       <c r="D70">
-        <v>0.02791579491587835</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0315077876722332</v>
+      </c>
+      <c r="E70">
+        <v>-0.03937329539420429</v>
+      </c>
+      <c r="F70">
+        <v>0.3190013797863847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1328022065585607</v>
+        <v>0.1422374163177359</v>
       </c>
       <c r="C71">
-        <v>-0.0357625291626857</v>
+        <v>-0.04328813962858719</v>
       </c>
       <c r="D71">
-        <v>-0.2763951229393488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2672000359834582</v>
+      </c>
+      <c r="E71">
+        <v>-0.09569068167633957</v>
+      </c>
+      <c r="F71">
+        <v>-0.02061150923484156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1385288810599188</v>
+        <v>0.1444339014040814</v>
       </c>
       <c r="C72">
-        <v>-0.03192739723734781</v>
+        <v>-0.03141797515808765</v>
       </c>
       <c r="D72">
-        <v>0.001984863037954829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0004779601049531257</v>
+      </c>
+      <c r="E72">
+        <v>0.04303157181176308</v>
+      </c>
+      <c r="F72">
+        <v>-0.03545341715003009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.199884530191608</v>
+        <v>0.2028408496257823</v>
       </c>
       <c r="C73">
-        <v>-0.02159527941415851</v>
+        <v>-0.01711065472809214</v>
       </c>
       <c r="D73">
-        <v>0.01281016842470937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0193046406991128</v>
+      </c>
+      <c r="E73">
+        <v>0.06774158100747454</v>
+      </c>
+      <c r="F73">
+        <v>-0.03682580496859043</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08767322497666996</v>
+        <v>0.08846795621807294</v>
       </c>
       <c r="C74">
-        <v>-0.01546832921446013</v>
+        <v>-0.01423204915591</v>
       </c>
       <c r="D74">
-        <v>0.01262652185687076</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01704551581772417</v>
+      </c>
+      <c r="E74">
+        <v>0.04998672507004518</v>
+      </c>
+      <c r="F74">
+        <v>-0.05206602774829494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1314558009411856</v>
+        <v>0.1238905273213975</v>
       </c>
       <c r="C75">
-        <v>-0.03422892950297914</v>
+        <v>-0.0314635367616856</v>
       </c>
       <c r="D75">
-        <v>0.02553175087623179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03186865766847377</v>
+      </c>
+      <c r="E75">
+        <v>0.06160798093026867</v>
+      </c>
+      <c r="F75">
+        <v>-0.01926961592324868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08076954029913594</v>
+        <v>0.09227511998594941</v>
       </c>
       <c r="C77">
-        <v>-0.01560792225091867</v>
+        <v>-0.01027600810447659</v>
       </c>
       <c r="D77">
-        <v>0.1176436115349992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1210121641961187</v>
+      </c>
+      <c r="E77">
+        <v>0.04888564707505334</v>
+      </c>
+      <c r="F77">
+        <v>-0.037419101500883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1007237251916067</v>
+        <v>0.1007729391988062</v>
       </c>
       <c r="C78">
-        <v>-0.04674524901893683</v>
+        <v>-0.0419189728209352</v>
       </c>
       <c r="D78">
-        <v>0.1148894080908783</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1132884843029369</v>
+      </c>
+      <c r="E78">
+        <v>0.08064847675187209</v>
+      </c>
+      <c r="F78">
+        <v>-0.03854936135585169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1693326931901288</v>
+        <v>0.1646467341617666</v>
       </c>
       <c r="C79">
-        <v>-0.03104217778923469</v>
+        <v>-0.02855150769031414</v>
       </c>
       <c r="D79">
-        <v>0.01101393673557273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0177362415587818</v>
+      </c>
+      <c r="E79">
+        <v>0.04964137311908493</v>
+      </c>
+      <c r="F79">
+        <v>-0.01558509828421698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08006544268360559</v>
+        <v>0.07878109633985214</v>
       </c>
       <c r="C80">
-        <v>-0.004007347434843344</v>
+        <v>-0.001057165330332468</v>
       </c>
       <c r="D80">
-        <v>0.05151495832318299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05156847870933815</v>
+      </c>
+      <c r="E80">
+        <v>0.03683573504628352</v>
+      </c>
+      <c r="F80">
+        <v>0.06073144670256989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1180077075249025</v>
+        <v>0.1127445605920587</v>
       </c>
       <c r="C81">
-        <v>-0.03571398669906178</v>
+        <v>-0.0342811473560509</v>
       </c>
       <c r="D81">
-        <v>0.006501857781291052</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01229330899483526</v>
+      </c>
+      <c r="E81">
+        <v>0.05587047871282039</v>
+      </c>
+      <c r="F81">
+        <v>-0.01055599585722842</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1639063388048156</v>
+        <v>0.1625539658700529</v>
       </c>
       <c r="C82">
-        <v>-0.03032481409390267</v>
+        <v>-0.02956910135244517</v>
       </c>
       <c r="D82">
-        <v>0.006148364202471351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004377109512620635</v>
+      </c>
+      <c r="E82">
+        <v>0.03795689003148028</v>
+      </c>
+      <c r="F82">
+        <v>-0.09936247801431532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05788978063994371</v>
+        <v>0.05296291097034892</v>
       </c>
       <c r="C83">
-        <v>-0.005882661871923218</v>
+        <v>-0.003573082890069106</v>
       </c>
       <c r="D83">
-        <v>0.03862650998089202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04008419654805079</v>
+      </c>
+      <c r="E83">
+        <v>-0.008576013632049352</v>
+      </c>
+      <c r="F83">
+        <v>0.03635132449206214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05923588075243293</v>
+        <v>0.05497635364850906</v>
       </c>
       <c r="C84">
-        <v>-0.014336326568035</v>
+        <v>-0.01115320814958354</v>
       </c>
       <c r="D84">
-        <v>0.07737343300486488</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07822326480273142</v>
+      </c>
+      <c r="E84">
+        <v>0.01650136622226534</v>
+      </c>
+      <c r="F84">
+        <v>-0.006057564528408486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1395885006509407</v>
+        <v>0.1344833179155402</v>
       </c>
       <c r="C85">
-        <v>-0.03393428860403759</v>
+        <v>-0.03234440043402163</v>
       </c>
       <c r="D85">
-        <v>0.007957572568351829</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01155774698517866</v>
+      </c>
+      <c r="E85">
+        <v>0.04636022906643646</v>
+      </c>
+      <c r="F85">
+        <v>-0.05944881675906918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0823004844937303</v>
+        <v>0.07814633113711622</v>
       </c>
       <c r="C86">
-        <v>0.005740470236480117</v>
+        <v>0.008875380559701173</v>
       </c>
       <c r="D86">
-        <v>0.01850323731997786</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04690828192906543</v>
+      </c>
+      <c r="E86">
+        <v>0.0911084203845365</v>
+      </c>
+      <c r="F86">
+        <v>0.832722731575277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09497698813837788</v>
+        <v>0.09166319296382872</v>
       </c>
       <c r="C87">
-        <v>-0.03032627883970598</v>
+        <v>-0.02196914156366369</v>
       </c>
       <c r="D87">
-        <v>0.07350518966272027</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09077674584963485</v>
+      </c>
+      <c r="E87">
+        <v>-0.05899626906913245</v>
+      </c>
+      <c r="F87">
+        <v>-0.06735426757449679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06268991159270006</v>
+        <v>0.06150080518358302</v>
       </c>
       <c r="C88">
-        <v>-0.006988833406670064</v>
+        <v>-0.003866773085814928</v>
       </c>
       <c r="D88">
-        <v>0.05096173255534644</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05133797813730599</v>
+      </c>
+      <c r="E88">
+        <v>0.03026292079533068</v>
+      </c>
+      <c r="F88">
+        <v>-0.003502307441844548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1240345154588141</v>
+        <v>0.1313075942112339</v>
       </c>
       <c r="C89">
-        <v>-0.0112226227639339</v>
+        <v>-0.0182275910844974</v>
       </c>
       <c r="D89">
-        <v>-0.2379180634986801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2399451546206981</v>
+      </c>
+      <c r="E89">
+        <v>-0.0875191740748381</v>
+      </c>
+      <c r="F89">
+        <v>-0.006535084593173491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1438076196027408</v>
+        <v>0.1572255483151798</v>
       </c>
       <c r="C90">
-        <v>-0.03189358664077659</v>
+        <v>-0.040132102154686</v>
       </c>
       <c r="D90">
-        <v>-0.2624870438157622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2648859913800923</v>
+      </c>
+      <c r="E90">
+        <v>-0.1160002173469361</v>
+      </c>
+      <c r="F90">
+        <v>-0.006736303651948927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1246211187964145</v>
+        <v>0.1213477539925424</v>
       </c>
       <c r="C91">
-        <v>-0.02491537496543927</v>
+        <v>-0.02402335800142437</v>
       </c>
       <c r="D91">
-        <v>-0.01837142207793905</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01371143254542358</v>
+      </c>
+      <c r="E91">
+        <v>0.05741158555531969</v>
+      </c>
+      <c r="F91">
+        <v>0.01338974903302885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1442602083391437</v>
+        <v>0.1501958381135807</v>
       </c>
       <c r="C92">
-        <v>-0.02275096059952732</v>
+        <v>-0.03110944955312609</v>
       </c>
       <c r="D92">
-        <v>-0.2899461696674885</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2900891324827612</v>
+      </c>
+      <c r="E92">
+        <v>-0.1052559595363089</v>
+      </c>
+      <c r="F92">
+        <v>0.01121430268396842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1487391907007829</v>
+        <v>0.1598777514980173</v>
       </c>
       <c r="C93">
-        <v>-0.02845489884139304</v>
+        <v>-0.03529368957946802</v>
       </c>
       <c r="D93">
-        <v>-0.2596522467870054</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2581241477863977</v>
+      </c>
+      <c r="E93">
+        <v>-0.07080140987826275</v>
+      </c>
+      <c r="F93">
+        <v>-0.01204920276077885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1312388781822616</v>
+        <v>0.123676765786522</v>
       </c>
       <c r="C94">
-        <v>-0.03055677534371775</v>
+        <v>-0.02712889455469361</v>
       </c>
       <c r="D94">
-        <v>0.04098091268061797</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0451250398651068</v>
+      </c>
+      <c r="E94">
+        <v>0.06366198769812471</v>
+      </c>
+      <c r="F94">
+        <v>-0.0231017248208325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1268635905560935</v>
+        <v>0.1289779412599866</v>
       </c>
       <c r="C95">
-        <v>-0.01276420312762547</v>
+        <v>-0.00709382664905858</v>
       </c>
       <c r="D95">
-        <v>0.09067051547969</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1014445932037136</v>
+      </c>
+      <c r="E95">
+        <v>0.06434177912649983</v>
+      </c>
+      <c r="F95">
+        <v>0.0335159576548304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1503859582877267</v>
+        <v>0.137686058055545</v>
       </c>
       <c r="C96">
-        <v>0.982806138930628</v>
+        <v>0.9835054089993001</v>
       </c>
       <c r="D96">
-        <v>-0.02557930388341407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0550467512474554</v>
+      </c>
+      <c r="E96">
+        <v>0.05375071346868722</v>
+      </c>
+      <c r="F96">
+        <v>-0.04291345572593284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1896526334633658</v>
+        <v>0.1930025787363438</v>
       </c>
       <c r="C97">
-        <v>-0.001235337581560897</v>
+        <v>0.0002427705295100288</v>
       </c>
       <c r="D97">
-        <v>-0.02471153554610988</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02787478604559051</v>
+      </c>
+      <c r="E97">
+        <v>0.01889175060468569</v>
+      </c>
+      <c r="F97">
+        <v>0.1809789020239779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1953572334702251</v>
+        <v>0.2014092834593871</v>
       </c>
       <c r="C98">
-        <v>-0.01561089267183709</v>
+        <v>-0.0108125575447099</v>
       </c>
       <c r="D98">
-        <v>0.007286225389706812</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01024719626208977</v>
+      </c>
+      <c r="E98">
+        <v>-0.0878198249278169</v>
+      </c>
+      <c r="F98">
+        <v>0.06950450830855191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05738618832985459</v>
+        <v>0.05691907878226886</v>
       </c>
       <c r="C99">
-        <v>0.0005670207779210662</v>
+        <v>0.002769723485048194</v>
       </c>
       <c r="D99">
-        <v>0.0383175836349931</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04346677191939473</v>
+      </c>
+      <c r="E99">
+        <v>0.02690036133546514</v>
+      </c>
+      <c r="F99">
+        <v>0.01428082099461112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1475223218232113</v>
+        <v>0.1338309013487078</v>
       </c>
       <c r="C100">
-        <v>0.03454267576758032</v>
+        <v>0.04713670379207538</v>
       </c>
       <c r="D100">
-        <v>0.3970105018087779</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3609345975106734</v>
+      </c>
+      <c r="E100">
+        <v>-0.8936322601916811</v>
+      </c>
+      <c r="F100">
+        <v>0.02128291050676237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02511842915460568</v>
+        <v>0.02771391725073896</v>
       </c>
       <c r="C101">
-        <v>-0.009727241514684258</v>
+        <v>-0.009037938388873044</v>
       </c>
       <c r="D101">
-        <v>0.02984975119302663</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03001256377208968</v>
+      </c>
+      <c r="E101">
+        <v>0.01576640762486556</v>
+      </c>
+      <c r="F101">
+        <v>0.02933956973784499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
